--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MICHIGAN_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MICHIGAN_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D976"/>
+  <dimension ref="A1:D970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="12">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="18">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C27">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C50">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C78">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C80">
@@ -1613,7 +1613,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C94">
@@ -1709,7 +1709,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C105">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="D110">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="111">
@@ -1986,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="D121">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="122">
@@ -2135,7 +2135,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C133">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C138">
@@ -2304,12 +2304,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C146">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C147">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C151">
@@ -2433,13 +2433,13 @@
         <v>5</v>
       </c>
       <c r="D155">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C156">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C159">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C163">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C165">
@@ -2615,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="D169">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C171">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C174">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C179">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C188">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C195">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C204">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C205">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C206">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C213">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C216">
@@ -3296,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="D221">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="222">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C226">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C228">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C230">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C235">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C241">
@@ -3580,14 +3580,14 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C243">
         <v>5</v>
       </c>
       <c r="D243">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="244">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,20 +3645,20 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C248">
         <v>5</v>
       </c>
       <c r="D248">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C249">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C250">
@@ -3684,20 +3684,20 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C251">
         <v>5</v>
       </c>
       <c r="D251">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C252">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C258">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C265">
@@ -3886,7 +3886,7 @@
         <v>5</v>
       </c>
       <c r="D266">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C268">
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="D271">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="272">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C282">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C285">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C288">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C299">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C304">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C307">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C310">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C316">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C317">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C320">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C321">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C327">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C333">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C335">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C339">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C340">
@@ -4872,20 +4872,20 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C342">
         <v>5</v>
       </c>
       <c r="D342">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C343">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C347">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C351">
@@ -5092,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="D358">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="359">
@@ -5111,14 +5111,14 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C360">
         <v>5</v>
       </c>
       <c r="D360">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="361">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C364">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C369">
@@ -5287,13 +5287,13 @@
         <v>5</v>
       </c>
       <c r="D373">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C374">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C377">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C379">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C381">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C383">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C384">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C387">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C389">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C397">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C399">
@@ -5857,7 +5857,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C417">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C465">
@@ -6605,7 +6605,7 @@
         <v>5</v>
       </c>
       <c r="D474">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="475">
@@ -6709,7 +6709,7 @@
         <v>502</v>
       </c>
       <c r="D482">
-        <v>0.09453860640301319</v>
+        <v>0.0945386064030132</v>
       </c>
     </row>
     <row r="483">
@@ -6824,7 +6824,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C491">
@@ -6863,7 +6863,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C494">
@@ -6928,7 +6928,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C499">
@@ -6941,7 +6941,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C500">
@@ -6961,7 +6961,7 @@
         <v>5</v>
       </c>
       <c r="D501">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="502">
@@ -6987,7 +6987,7 @@
         <v>5</v>
       </c>
       <c r="D503">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="504">
@@ -7063,7 +7063,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C509">
@@ -7166,7 +7166,7 @@
         <v>5</v>
       </c>
       <c r="D516">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="517">
@@ -7393,7 +7393,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C534">
@@ -7450,14 +7450,14 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C538">
         <v>5</v>
       </c>
       <c r="D538">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="539">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C543">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C549">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C553">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C560">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C562">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C567">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C583">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C589">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C602">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C626">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C632">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C636">
@@ -8775,7 +8775,7 @@
         <v>5</v>
       </c>
       <c r="D639">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="640">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C647">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C653">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C657">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C658">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C667">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C670">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C671">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C676">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C680">
@@ -9321,7 +9321,7 @@
         <v>5</v>
       </c>
       <c r="D681">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="682">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C687">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C699">
@@ -9568,13 +9568,13 @@
         <v>5</v>
       </c>
       <c r="D700">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C701">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C702">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C707">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C716">
@@ -9943,7 +9943,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C729">
@@ -9956,7 +9956,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C730">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C733">
@@ -10072,7 +10072,7 @@
         <v>5</v>
       </c>
       <c r="D738">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="739">
@@ -10122,7 +10122,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C742">
@@ -10161,7 +10161,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C745">
@@ -10304,7 +10304,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C756">
@@ -10356,7 +10356,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C760">
@@ -10369,7 +10369,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C761">
@@ -10447,7 +10447,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C767">
@@ -10460,7 +10460,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C768">
@@ -10473,7 +10473,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C769">
@@ -10486,7 +10486,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C770">
@@ -10628,7 +10628,7 @@
         <v>5</v>
       </c>
       <c r="D780">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="781">
@@ -10833,7 +10833,7 @@
         <v>5</v>
       </c>
       <c r="D795">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="796">
@@ -11143,7 +11143,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C819">
@@ -11291,7 +11291,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C830">
@@ -11317,7 +11317,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C832">
@@ -11330,7 +11330,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C833">
@@ -11504,7 +11504,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C846">
@@ -11530,7 +11530,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C848">
@@ -11595,7 +11595,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C853">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C864">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C876">
@@ -11907,7 +11907,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C877">
@@ -11940,13 +11940,13 @@
         <v>5</v>
       </c>
       <c r="D879">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C880">
@@ -11998,7 +11998,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C884">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C886">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C895">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C897">
@@ -12232,7 +12232,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C902">
@@ -12271,7 +12271,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C905">
@@ -12421,7 +12421,7 @@
         <v>5</v>
       </c>
       <c r="D916">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="917">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C926">
@@ -12873,7 +12873,7 @@
         <v>5</v>
       </c>
       <c r="D950">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="951">
@@ -12918,7 +12918,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C954">
@@ -12931,7 +12931,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C955">
@@ -12944,7 +12944,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C956">
@@ -13022,7 +13022,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C962">
@@ -13048,7 +13048,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C964">
@@ -13094,7 +13094,7 @@
         <v>5</v>
       </c>
       <c r="D967">
-        <v>0.0009416195856873823</v>
+        <v>0.0009416195856873824</v>
       </c>
     </row>
     <row r="968">
@@ -13134,41 +13134,6 @@
       </c>
       <c r="D970">
         <v>1</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
